--- a/丰富的实践/URP/Forward Pass.xlsx
+++ b/丰富的实践/URP/Forward Pass.xlsx
@@ -83,118 +83,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SceneViewDepthCopyPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+  </si>
+  <si>
+    <t>Blit.shader</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransparentSettingsPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPDefaultUnlit|UniversalForward|UniversalForwardOnly|LightweightForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthNormals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用特定标签的Pass绘制到屏幕缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_MainLightShadowmapTexture</t>
+  </si>
+  <si>
+    <t>复制深度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制颜色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染到屏幕缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;_CameraDepthTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制深度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CapturePass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在Editor模式下生效，是录屏用的</t>
+  </si>
+  <si>
+    <t>ColorGradingLutPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_InternalGradingLut--&gt;_InternalGradingLut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成Lut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LutBuilderHdr.shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyDepthPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyColorPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraColorTexture--&gt;_CameraOpaqueTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>_AfterPostProcessTexture--&gt;cameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneViewDepthCopyPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyDepth.shader</t>
-  </si>
-  <si>
-    <t>Blit.shader</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyDepthPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyDepth.shader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraOpaqueTexture</t>
-  </si>
-  <si>
-    <t>TransparentSettingsPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRPDefaultUnlit|UniversalForward|UniversalForwardOnly|LightweightForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepthNormals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用特定标签的Pass绘制到屏幕缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_MainLightShadowmapTexture</t>
-  </si>
-  <si>
-    <t>复制深度值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyColorPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制颜色值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染到屏幕缓冲区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthAttachment--&gt;_CameraDepthTexture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制深度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CapturePass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只在Editor模式下生效，是录屏用的</t>
-  </si>
-  <si>
-    <t>ColorGradingLutPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_InternalGradingLut--&gt;_InternalGradingLut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成Lut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthAttachment--&gt;CameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LutBuilderHdr.shader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,13 +558,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.6328125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
     <col min="3" max="3" width="30.6328125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
@@ -590,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,24 +610,24 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,52 +652,52 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,10 +716,10 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,10 +734,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,27 +745,27 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
